--- a/biology/Zoologie/Dilophus_luteipennis/Dilophus_luteipennis.xlsx
+++ b/biology/Zoologie/Dilophus_luteipennis/Dilophus_luteipennis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dilophus luteipennis est une espèce fossile d'insectes de l'ordre des diptères, de la famille des Bibionidae, de la sous-famille des Bibioninae et du genre Dilophus.
 </t>
@@ -511,15 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Dilophus luteipennis est publiée en 1937 par le paléontologue français Nicolas Théobald (1903-1981) sous le protonyme Bibio luteipennis[1],[2]. 
-Fossiles
-L'holotype A16 ♀, de l'ère Cénozoïque, et de l'époque Chattien ou Oligocène supérieur (28,4 à 23,03 Ma) vient des collections de l'institut géologique de Lyon[1]. Ce spécimen provient du gypse d'Aix-en-Provence, ainsi que son cotypes A86 ♀ de la même collection et de la même provenance que l'holotype[1],[3]. 
-Reclassement dans le genre Dilophus
-Cette espèce est recombinée en Dilophus luteipennis par John Skartveit et André Nel en 2017[3],[2].
-Étymologie
-L'épithète spécifique luteipennis signifie en latin « ailes jaunes ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Dilophus luteipennis est publiée en 1937 par le paléontologue français Nicolas Théobald (1903-1981) sous le protonyme Bibio luteipennis,. 
 </t>
         </is>
       </c>
@@ -545,18 +553,206 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype A16 ♀, de l'ère Cénozoïque, et de l'époque Chattien ou Oligocène supérieur (28,4 à 23,03 Ma) vient des collections de l'institut géologique de Lyon. Ce spécimen provient du gypse d'Aix-en-Provence, ainsi que son cotypes A86 ♀ de la même collection et de la même provenance que l'holotype,. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Dilophus_luteipennis</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dilophus_luteipennis</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Reclassement dans le genre Dilophus</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est recombinée en Dilophus luteipennis par John Skartveit et André Nel en 2017,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Dilophus_luteipennis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dilophus_luteipennis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique luteipennis signifie en latin « ailes jaunes ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Dilophus_luteipennis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dilophus_luteipennis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caractères
-La diagnose de Nicolas Théobald en 1937[1],[note 1] : 
-« Insecte de teinte brunâtre, ailes jaunes, à stigma noir, ailes ne dépassant pas l'extrémité de l'abdomen. Tête arrondie ; thorax ovale ; abdomen fusiforme, 8 segments, le dernier porte deux lamelles faisant partie de l'appareil génital (A86). Pattes grêles, velues, tibias armés d'un ou de deux éperons ; tarses de 5 articles, le Ier un peu plus long que les autres, le dernier avec deux griffes. Ailes avec stigma noir et court. Rs bifurqué. »[1].
-Dimensions
-La longueur du corps est de 6,5 mm, la tête a une longueur de 0,5 mm ; le thorax a une longueur de 1,5 mm et une largeur de 1,2 mm, l'abdomen a une longueur de 4,5 mm et une largeur de 1,5 mm, les ailes ont une longueur de 4,2 mm et une largeur de 1,7 mm[1].
-Affinités
-« Bien que la nervation des ailes ne soit pas aussi bien conservée que dans la forme précédente, on y reconnait néanmoins les caractères du g. Bibio. Les pattes antérieures bien conservées, n'ont pas de couronne de cils à l'extrémité du tibia ; il ne peut donc pas s'agir d'un Dilophus. »[1].
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+La diagnose de Nicolas Théobald en 1937,[note 1] : 
+« Insecte de teinte brunâtre, ailes jaunes, à stigma noir, ailes ne dépassant pas l'extrémité de l'abdomen. Tête arrondie ; thorax ovale ; abdomen fusiforme, 8 segments, le dernier porte deux lamelles faisant partie de l'appareil génital (A86). Pattes grêles, velues, tibias armés d'un ou de deux éperons ; tarses de 5 articles, le Ier un peu plus long que les autres, le dernier avec deux griffes. Ailes avec stigma noir et court. Rs bifurqué. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Dilophus_luteipennis</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dilophus_luteipennis</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La longueur du corps est de 6,5 mm, la tête a une longueur de 0,5 mm ; le thorax a une longueur de 1,5 mm et une largeur de 1,2 mm, l'abdomen a une longueur de 4,5 mm et une largeur de 1,5 mm, les ailes ont une longueur de 4,2 mm et une largeur de 1,7 mm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Dilophus_luteipennis</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dilophus_luteipennis</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Affinités</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+« Bien que la nervation des ailes ne soit pas aussi bien conservée que dans la forme précédente, on y reconnait néanmoins les caractères du g. Bibio. Les pattes antérieures bien conservées, n'ont pas de couronne de cils à l'extrémité du tibia ; il ne peut donc pas s'agir d'un Dilophus. ».
 </t>
         </is>
       </c>
